--- a/natmiOut/YoungD4/LR-pairs_lrc2p/F2-Gp9.xlsx
+++ b/natmiOut/YoungD4/LR-pairs_lrc2p/F2-Gp9.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,6 +82,12 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>M1</t>
+  </si>
+  <si>
+    <t>M2</t>
+  </si>
+  <si>
     <t>sCs</t>
   </si>
   <si>
@@ -89,12 +95,6 @@
   </si>
   <si>
     <t>Gp9</t>
-  </si>
-  <si>
-    <t>M1</t>
-  </si>
-  <si>
-    <t>M2</t>
   </si>
 </sst>
 </file>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:T21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,61 +525,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.853079630476172</v>
+        <v>0.9173669999999999</v>
       </c>
       <c r="H2">
-        <v>0.853079630476172</v>
+        <v>2.752101</v>
       </c>
       <c r="I2">
-        <v>0.4614814602172247</v>
+        <v>0.3945831400754584</v>
       </c>
       <c r="J2">
-        <v>0.4614814602172247</v>
+        <v>0.3945831400754584</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>2.17917665141506</v>
+        <v>1.217379666666667</v>
       </c>
       <c r="N2">
-        <v>2.17917665141506</v>
+        <v>3.652139</v>
       </c>
       <c r="O2">
-        <v>0.3994280601917189</v>
+        <v>0.1684968937451138</v>
       </c>
       <c r="P2">
-        <v>0.3994280601917189</v>
+        <v>0.1684968937451139</v>
       </c>
       <c r="Q2">
-        <v>1.859011212531461</v>
+        <v>1.116783932671</v>
       </c>
       <c r="R2">
-        <v>1.859011212531461</v>
+        <v>10.051055394039</v>
       </c>
       <c r="S2">
-        <v>0.184328644469008</v>
+        <v>0.06648603342690788</v>
       </c>
       <c r="T2">
-        <v>0.184328644469008</v>
+        <v>0.06648603342690788</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,309 +587,1177 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.853079630476172</v>
+        <v>0.9173669999999999</v>
       </c>
       <c r="H3">
-        <v>0.853079630476172</v>
+        <v>2.752101</v>
       </c>
       <c r="I3">
-        <v>0.4614814602172247</v>
+        <v>0.3945831400754584</v>
       </c>
       <c r="J3">
-        <v>0.4614814602172247</v>
+        <v>0.3945831400754584</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>3.27656586794898</v>
+        <v>2.353027666666667</v>
       </c>
       <c r="N3">
-        <v>3.27656586794898</v>
+        <v>7.059083</v>
       </c>
       <c r="O3">
-        <v>0.6005719398082811</v>
+        <v>0.3256813495293962</v>
       </c>
       <c r="P3">
-        <v>0.6005719398082811</v>
+        <v>0.3256813495293963</v>
       </c>
       <c r="Q3">
-        <v>2.795171599860753</v>
+        <v>2.158589931487</v>
       </c>
       <c r="R3">
-        <v>2.795171599860753</v>
+        <v>19.427309383383</v>
       </c>
       <c r="S3">
-        <v>0.2771528157482167</v>
+        <v>0.1285083695613221</v>
       </c>
       <c r="T3">
-        <v>0.2771528157482167</v>
+        <v>0.1285083695613221</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4" t="s">
         <v>23</v>
       </c>
-      <c r="C4" t="s">
-        <v>24</v>
-      </c>
-      <c r="D4" t="s">
-        <v>25</v>
-      </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.729449170168489</v>
+        <v>0.9173669999999999</v>
       </c>
       <c r="H4">
-        <v>0.729449170168489</v>
+        <v>2.752101</v>
       </c>
       <c r="I4">
-        <v>0.3946023983900525</v>
+        <v>0.3945831400754584</v>
       </c>
       <c r="J4">
-        <v>0.3946023983900525</v>
+        <v>0.3945831400754584</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>2.17917665141506</v>
+        <v>3.343124333333333</v>
       </c>
       <c r="N4">
-        <v>2.17917665141506</v>
+        <v>10.029373</v>
       </c>
       <c r="O4">
-        <v>0.3994280601917189</v>
+        <v>0.4627201201025244</v>
       </c>
       <c r="P4">
-        <v>0.3994280601917189</v>
+        <v>0.4627201201025245</v>
       </c>
       <c r="Q4">
-        <v>1.589598600025262</v>
+        <v>3.066871940297</v>
       </c>
       <c r="R4">
-        <v>1.589598600025262</v>
+        <v>27.601847462673</v>
       </c>
       <c r="S4">
-        <v>0.1576152705359385</v>
+        <v>0.1825815579661473</v>
       </c>
       <c r="T4">
-        <v>0.1576152705359385</v>
+        <v>0.1825815579661473</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" t="s">
         <v>24</v>
       </c>
-      <c r="D5" t="s">
-        <v>26</v>
-      </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.729449170168489</v>
+        <v>0.9173669999999999</v>
       </c>
       <c r="H5">
-        <v>0.729449170168489</v>
+        <v>2.752101</v>
       </c>
       <c r="I5">
-        <v>0.3946023983900525</v>
+        <v>0.3945831400754584</v>
       </c>
       <c r="J5">
-        <v>0.3946023983900525</v>
+        <v>0.3945831400754584</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>3.27656586794898</v>
+        <v>0.3114066666666667</v>
       </c>
       <c r="N5">
-        <v>3.27656586794898</v>
+        <v>0.9342200000000001</v>
       </c>
       <c r="O5">
-        <v>0.6005719398082811</v>
+        <v>0.04310163662296541</v>
       </c>
       <c r="P5">
-        <v>0.6005719398082811</v>
+        <v>0.04310163662296541</v>
       </c>
       <c r="Q5">
-        <v>2.390088253377778</v>
+        <v>0.28567419958</v>
       </c>
       <c r="R5">
-        <v>2.390088253377778</v>
+        <v>2.57106779622</v>
       </c>
       <c r="S5">
-        <v>0.2369871278541139</v>
+        <v>0.01700717912108107</v>
       </c>
       <c r="T5">
-        <v>0.2369871278541139</v>
+        <v>0.01700717912108107</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C6" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D6" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.266038702098824</v>
+        <v>0.824043</v>
       </c>
       <c r="H6">
-        <v>0.266038702098824</v>
+        <v>2.472129</v>
       </c>
       <c r="I6">
-        <v>0.1439161413927229</v>
+        <v>0.3544420875148125</v>
       </c>
       <c r="J6">
-        <v>0.1439161413927229</v>
+        <v>0.3544420875148125</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M6">
-        <v>2.17917665141506</v>
+        <v>1.217379666666667</v>
       </c>
       <c r="N6">
-        <v>2.17917665141506</v>
+        <v>3.652139</v>
       </c>
       <c r="O6">
-        <v>0.3994280601917189</v>
+        <v>0.1684968937451138</v>
       </c>
       <c r="P6">
-        <v>0.3994280601917189</v>
+        <v>0.1684968937451139</v>
       </c>
       <c r="Q6">
-        <v>0.579745327986524</v>
+        <v>1.003173192659</v>
       </c>
       <c r="R6">
-        <v>0.579745327986524</v>
+        <v>9.028558733931</v>
       </c>
       <c r="S6">
-        <v>0.05748414518677244</v>
+        <v>0.0597223907587797</v>
       </c>
       <c r="T6">
-        <v>0.05748414518677244</v>
+        <v>0.05972239075877971</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" t="s">
         <v>22</v>
       </c>
-      <c r="B7" t="s">
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>0.824043</v>
+      </c>
+      <c r="H7">
+        <v>2.472129</v>
+      </c>
+      <c r="I7">
+        <v>0.3544420875148125</v>
+      </c>
+      <c r="J7">
+        <v>0.3544420875148125</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>2.353027666666667</v>
+      </c>
+      <c r="N7">
+        <v>7.059083</v>
+      </c>
+      <c r="O7">
+        <v>0.3256813495293962</v>
+      </c>
+      <c r="P7">
+        <v>0.3256813495293963</v>
+      </c>
+      <c r="Q7">
+        <v>1.938995977523</v>
+      </c>
+      <c r="R7">
+        <v>17.450963797707</v>
+      </c>
+      <c r="S7">
+        <v>0.1154351773918405</v>
+      </c>
+      <c r="T7">
+        <v>0.1154351773918405</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D8" t="s">
         <v>23</v>
       </c>
-      <c r="C7" t="s">
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>0.824043</v>
+      </c>
+      <c r="H8">
+        <v>2.472129</v>
+      </c>
+      <c r="I8">
+        <v>0.3544420875148125</v>
+      </c>
+      <c r="J8">
+        <v>0.3544420875148125</v>
+      </c>
+      <c r="K8">
+        <v>3</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>3.343124333333333</v>
+      </c>
+      <c r="N8">
+        <v>10.029373</v>
+      </c>
+      <c r="O8">
+        <v>0.4627201201025244</v>
+      </c>
+      <c r="P8">
+        <v>0.4627201201025245</v>
+      </c>
+      <c r="Q8">
+        <v>2.754878205013</v>
+      </c>
+      <c r="R8">
+        <v>24.793903845117</v>
+      </c>
+      <c r="S8">
+        <v>0.1640074853042435</v>
+      </c>
+      <c r="T8">
+        <v>0.1640074853042435</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" t="s">
         <v>24</v>
       </c>
-      <c r="D7" t="s">
-        <v>26</v>
-      </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-      <c r="G7">
-        <v>0.266038702098824</v>
-      </c>
-      <c r="H7">
-        <v>0.266038702098824</v>
-      </c>
-      <c r="I7">
-        <v>0.1439161413927229</v>
-      </c>
-      <c r="J7">
-        <v>0.1439161413927229</v>
-      </c>
-      <c r="K7">
-        <v>1</v>
-      </c>
-      <c r="L7">
-        <v>1</v>
-      </c>
-      <c r="M7">
-        <v>3.27656586794898</v>
-      </c>
-      <c r="N7">
-        <v>3.27656586794898</v>
-      </c>
-      <c r="O7">
-        <v>0.6005719398082811</v>
-      </c>
-      <c r="P7">
-        <v>0.6005719398082811</v>
-      </c>
-      <c r="Q7">
-        <v>0.8716933308504534</v>
-      </c>
-      <c r="R7">
-        <v>0.8716933308504534</v>
-      </c>
-      <c r="S7">
-        <v>0.08643199620595043</v>
-      </c>
-      <c r="T7">
-        <v>0.08643199620595043</v>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>0.824043</v>
+      </c>
+      <c r="H9">
+        <v>2.472129</v>
+      </c>
+      <c r="I9">
+        <v>0.3544420875148125</v>
+      </c>
+      <c r="J9">
+        <v>0.3544420875148125</v>
+      </c>
+      <c r="K9">
+        <v>2</v>
+      </c>
+      <c r="L9">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M9">
+        <v>0.3114066666666667</v>
+      </c>
+      <c r="N9">
+        <v>0.9342200000000001</v>
+      </c>
+      <c r="O9">
+        <v>0.04310163662296541</v>
+      </c>
+      <c r="P9">
+        <v>0.04310163662296541</v>
+      </c>
+      <c r="Q9">
+        <v>0.25661248382</v>
+      </c>
+      <c r="R9">
+        <v>2.30951235438</v>
+      </c>
+      <c r="S9">
+        <v>0.01527703405994875</v>
+      </c>
+      <c r="T9">
+        <v>0.01527703405994875</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" t="s">
+        <v>21</v>
+      </c>
+      <c r="E10">
+        <v>2</v>
+      </c>
+      <c r="F10">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G10">
+        <v>0.172111</v>
+      </c>
+      <c r="H10">
+        <v>0.5163329999999999</v>
+      </c>
+      <c r="I10">
+        <v>0.07402936755031217</v>
+      </c>
+      <c r="J10">
+        <v>0.07402936755031216</v>
+      </c>
+      <c r="K10">
+        <v>2</v>
+      </c>
+      <c r="L10">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M10">
+        <v>1.217379666666667</v>
+      </c>
+      <c r="N10">
+        <v>3.652139</v>
+      </c>
+      <c r="O10">
+        <v>0.1684968937451138</v>
+      </c>
+      <c r="P10">
+        <v>0.1684968937451139</v>
+      </c>
+      <c r="Q10">
+        <v>0.2095244318096667</v>
+      </c>
+      <c r="R10">
+        <v>1.885719886287</v>
+      </c>
+      <c r="S10">
+        <v>0.01247371847814293</v>
+      </c>
+      <c r="T10">
+        <v>0.01247371847814293</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
+        <v>22</v>
+      </c>
+      <c r="E11">
+        <v>2</v>
+      </c>
+      <c r="F11">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G11">
+        <v>0.172111</v>
+      </c>
+      <c r="H11">
+        <v>0.5163329999999999</v>
+      </c>
+      <c r="I11">
+        <v>0.07402936755031217</v>
+      </c>
+      <c r="J11">
+        <v>0.07402936755031216</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>2.353027666666667</v>
+      </c>
+      <c r="N11">
+        <v>7.059083</v>
+      </c>
+      <c r="O11">
+        <v>0.3256813495293962</v>
+      </c>
+      <c r="P11">
+        <v>0.3256813495293963</v>
+      </c>
+      <c r="Q11">
+        <v>0.4049819447376666</v>
+      </c>
+      <c r="R11">
+        <v>3.644837502639</v>
+      </c>
+      <c r="S11">
+        <v>0.02410998432859336</v>
+      </c>
+      <c r="T11">
+        <v>0.02410998432859336</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" t="s">
+        <v>23</v>
+      </c>
+      <c r="E12">
+        <v>2</v>
+      </c>
+      <c r="F12">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G12">
+        <v>0.172111</v>
+      </c>
+      <c r="H12">
+        <v>0.5163329999999999</v>
+      </c>
+      <c r="I12">
+        <v>0.07402936755031217</v>
+      </c>
+      <c r="J12">
+        <v>0.07402936755031216</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>3.343124333333333</v>
+      </c>
+      <c r="N12">
+        <v>10.029373</v>
+      </c>
+      <c r="O12">
+        <v>0.4627201201025244</v>
+      </c>
+      <c r="P12">
+        <v>0.4627201201025245</v>
+      </c>
+      <c r="Q12">
+        <v>0.5753884721343333</v>
+      </c>
+      <c r="R12">
+        <v>5.178496249208999</v>
+      </c>
+      <c r="S12">
+        <v>0.03425487784399437</v>
+      </c>
+      <c r="T12">
+        <v>0.03425487784399437</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" t="s">
+        <v>24</v>
+      </c>
+      <c r="E13">
+        <v>2</v>
+      </c>
+      <c r="F13">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G13">
+        <v>0.172111</v>
+      </c>
+      <c r="H13">
+        <v>0.5163329999999999</v>
+      </c>
+      <c r="I13">
+        <v>0.07402936755031217</v>
+      </c>
+      <c r="J13">
+        <v>0.07402936755031216</v>
+      </c>
+      <c r="K13">
+        <v>2</v>
+      </c>
+      <c r="L13">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M13">
+        <v>0.3114066666666667</v>
+      </c>
+      <c r="N13">
+        <v>0.9342200000000001</v>
+      </c>
+      <c r="O13">
+        <v>0.04310163662296541</v>
+      </c>
+      <c r="P13">
+        <v>0.04310163662296541</v>
+      </c>
+      <c r="Q13">
+        <v>0.05359651280666666</v>
+      </c>
+      <c r="R13">
+        <v>0.48236861526</v>
+      </c>
+      <c r="S13">
+        <v>0.003190786899581502</v>
+      </c>
+      <c r="T13">
+        <v>0.003190786899581502</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" t="s">
+        <v>21</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G14">
+        <v>0.076847</v>
+      </c>
+      <c r="H14">
+        <v>0.230541</v>
+      </c>
+      <c r="I14">
+        <v>0.0330538710956234</v>
+      </c>
+      <c r="J14">
+        <v>0.0330538710956234</v>
+      </c>
+      <c r="K14">
+        <v>2</v>
+      </c>
+      <c r="L14">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M14">
+        <v>1.217379666666667</v>
+      </c>
+      <c r="N14">
+        <v>3.652139</v>
+      </c>
+      <c r="O14">
+        <v>0.1684968937451138</v>
+      </c>
+      <c r="P14">
+        <v>0.1684968937451139</v>
+      </c>
+      <c r="Q14">
+        <v>0.09355197524433334</v>
+      </c>
+      <c r="R14">
+        <v>0.841967777199</v>
+      </c>
+      <c r="S14">
+        <v>0.005569474605863946</v>
+      </c>
+      <c r="T14">
+        <v>0.005569474605863947</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" t="s">
+        <v>22</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G15">
+        <v>0.076847</v>
+      </c>
+      <c r="H15">
+        <v>0.230541</v>
+      </c>
+      <c r="I15">
+        <v>0.0330538710956234</v>
+      </c>
+      <c r="J15">
+        <v>0.0330538710956234</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>2.353027666666667</v>
+      </c>
+      <c r="N15">
+        <v>7.059083</v>
+      </c>
+      <c r="O15">
+        <v>0.3256813495293962</v>
+      </c>
+      <c r="P15">
+        <v>0.3256813495293963</v>
+      </c>
+      <c r="Q15">
+        <v>0.1808231171003333</v>
+      </c>
+      <c r="R15">
+        <v>1.627408053903</v>
+      </c>
+      <c r="S15">
+        <v>0.01076502934559333</v>
+      </c>
+      <c r="T15">
+        <v>0.01076502934559333</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
+        <v>23</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G16">
+        <v>0.076847</v>
+      </c>
+      <c r="H16">
+        <v>0.230541</v>
+      </c>
+      <c r="I16">
+        <v>0.0330538710956234</v>
+      </c>
+      <c r="J16">
+        <v>0.0330538710956234</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>3.343124333333333</v>
+      </c>
+      <c r="N16">
+        <v>10.029373</v>
+      </c>
+      <c r="O16">
+        <v>0.4627201201025244</v>
+      </c>
+      <c r="P16">
+        <v>0.4627201201025245</v>
+      </c>
+      <c r="Q16">
+        <v>0.2569090756436667</v>
+      </c>
+      <c r="R16">
+        <v>2.312181680793</v>
+      </c>
+      <c r="S16">
+        <v>0.01529469120322022</v>
+      </c>
+      <c r="T16">
+        <v>0.01529469120322022</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" t="s">
+        <v>24</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G17">
+        <v>0.076847</v>
+      </c>
+      <c r="H17">
+        <v>0.230541</v>
+      </c>
+      <c r="I17">
+        <v>0.0330538710956234</v>
+      </c>
+      <c r="J17">
+        <v>0.0330538710956234</v>
+      </c>
+      <c r="K17">
+        <v>2</v>
+      </c>
+      <c r="L17">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M17">
+        <v>0.3114066666666667</v>
+      </c>
+      <c r="N17">
+        <v>0.9342200000000001</v>
+      </c>
+      <c r="O17">
+        <v>0.04310163662296541</v>
+      </c>
+      <c r="P17">
+        <v>0.04310163662296541</v>
+      </c>
+      <c r="Q17">
+        <v>0.02393066811333333</v>
+      </c>
+      <c r="R17">
+        <v>0.21537601302</v>
+      </c>
+      <c r="S17">
+        <v>0.001424675940945899</v>
+      </c>
+      <c r="T17">
+        <v>0.0014246759409459</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>24</v>
+      </c>
+      <c r="B18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18">
+        <v>3</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>0.3345336666666667</v>
+      </c>
+      <c r="H18">
+        <v>1.003601</v>
+      </c>
+      <c r="I18">
+        <v>0.1438915337637936</v>
+      </c>
+      <c r="J18">
+        <v>0.1438915337637936</v>
+      </c>
+      <c r="K18">
+        <v>2</v>
+      </c>
+      <c r="L18">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M18">
+        <v>1.217379666666667</v>
+      </c>
+      <c r="N18">
+        <v>3.652139</v>
+      </c>
+      <c r="O18">
+        <v>0.1684968937451138</v>
+      </c>
+      <c r="P18">
+        <v>0.1684968937451139</v>
+      </c>
+      <c r="Q18">
+        <v>0.4072544836154445</v>
+      </c>
+      <c r="R18">
+        <v>3.665290352539</v>
+      </c>
+      <c r="S18">
+        <v>0.02424527647541939</v>
+      </c>
+      <c r="T18">
+        <v>0.02424527647541939</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>24</v>
+      </c>
+      <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>0.3345336666666667</v>
+      </c>
+      <c r="H19">
+        <v>1.003601</v>
+      </c>
+      <c r="I19">
+        <v>0.1438915337637936</v>
+      </c>
+      <c r="J19">
+        <v>0.1438915337637936</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>2.353027666666667</v>
+      </c>
+      <c r="N19">
+        <v>7.059083</v>
+      </c>
+      <c r="O19">
+        <v>0.3256813495293962</v>
+      </c>
+      <c r="P19">
+        <v>0.3256813495293963</v>
+      </c>
+      <c r="Q19">
+        <v>0.7871669730981111</v>
+      </c>
+      <c r="R19">
+        <v>7.084502757883</v>
+      </c>
+      <c r="S19">
+        <v>0.04686278890204698</v>
+      </c>
+      <c r="T19">
+        <v>0.04686278890204699</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20">
+        <v>3</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>0.3345336666666667</v>
+      </c>
+      <c r="H20">
+        <v>1.003601</v>
+      </c>
+      <c r="I20">
+        <v>0.1438915337637936</v>
+      </c>
+      <c r="J20">
+        <v>0.1438915337637936</v>
+      </c>
+      <c r="K20">
+        <v>3</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>3.343124333333333</v>
+      </c>
+      <c r="N20">
+        <v>10.029373</v>
+      </c>
+      <c r="O20">
+        <v>0.4627201201025244</v>
+      </c>
+      <c r="P20">
+        <v>0.4627201201025245</v>
+      </c>
+      <c r="Q20">
+        <v>1.118387641352556</v>
+      </c>
+      <c r="R20">
+        <v>10.065488772173</v>
+      </c>
+      <c r="S20">
+        <v>0.06658150778491903</v>
+      </c>
+      <c r="T20">
+        <v>0.06658150778491903</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>24</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
+        <v>24</v>
+      </c>
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>0.3345336666666667</v>
+      </c>
+      <c r="H21">
+        <v>1.003601</v>
+      </c>
+      <c r="I21">
+        <v>0.1438915337637936</v>
+      </c>
+      <c r="J21">
+        <v>0.1438915337637936</v>
+      </c>
+      <c r="K21">
+        <v>2</v>
+      </c>
+      <c r="L21">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M21">
+        <v>0.3114066666666667</v>
+      </c>
+      <c r="N21">
+        <v>0.9342200000000001</v>
+      </c>
+      <c r="O21">
+        <v>0.04310163662296541</v>
+      </c>
+      <c r="P21">
+        <v>0.04310163662296541</v>
+      </c>
+      <c r="Q21">
+        <v>0.1041760140244444</v>
+      </c>
+      <c r="R21">
+        <v>0.93758412622</v>
+      </c>
+      <c r="S21">
+        <v>0.00620196060140819</v>
+      </c>
+      <c r="T21">
+        <v>0.006201960601408191</v>
       </c>
     </row>
   </sheetData>
